--- a/selftest_bd/BOM/Selftest_Board.xlsx
+++ b/selftest_bd/BOM/Selftest_Board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Station_de_test\Kicad\Selftest\Selftest_Board\selftest_bd\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Station_de_test\Kicad\Selftest\Selftest_Board\selftest_bd\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="107">
   <si>
     <t>Ref</t>
   </si>
@@ -171,9 +171,6 @@
     <t>https://www.aliexpress.com/item/1005001818485416.html?spm=a2g0o.cart.0.0.405a38daqyYISw&amp;mp=1</t>
   </si>
   <si>
-    <t>1% 1/4W Resisto Kit</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.com/item/1005005249422833.html?spm=a2g0o.cart.0.0.6c0b38dax2jDId&amp;mp=1</t>
   </si>
   <si>
@@ -249,9 +246,6 @@
     <t>K1,K2,K3,K4,K5,K6,K7,K8,K9,K10,K11, K12,K13,K14,K15,K16,K17</t>
   </si>
   <si>
-    <t>Green Led 3mm</t>
-  </si>
-  <si>
     <t>TQ2-5</t>
   </si>
   <si>
@@ -279,15 +273,6 @@
     <t>R16,</t>
   </si>
   <si>
-    <t>https://www.digikey.ca/en/products/detail/microchip-technology/11AA010-I-TO/2332772</t>
-  </si>
-  <si>
-    <t>11AA010</t>
-  </si>
-  <si>
-    <t>11AA010-I-TO</t>
-  </si>
-  <si>
     <t>TP6.TP3,TP37,TP38</t>
   </si>
   <si>
@@ -321,7 +306,40 @@
     <t>BOM Selftest Board</t>
   </si>
   <si>
-    <t>600-1010-010</t>
+    <t>https://www.aliexpress.com/item/1005003797567885.html?spm=a2g0o.order_list.order_list_main.5.21ef1802TTcugs</t>
+  </si>
+  <si>
+    <t>DS2431</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/1005005053790061.html?spm=a2g0o.order_list.order_list_main.16.2c1a1802vA8wf5</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>R13, R14</t>
+  </si>
+  <si>
+    <t>1% 1/4W Resistor Kit</t>
+  </si>
+  <si>
+    <t>U1_male_pin</t>
+  </si>
+  <si>
+    <t>1x40P male L-11.96mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1x40P Female Gold </t>
+  </si>
+  <si>
+    <t>600-1010-020</t>
+  </si>
+  <si>
+    <t>Red,Green Led 3mm</t>
   </si>
 </sst>
 </file>
@@ -869,14 +887,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -896,6 +908,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1219,10 +1237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,606 +1255,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>2</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>3</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="11">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>100</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>10</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>10</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="D20" s="7">
+        <v>4.7</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="7">
+        <v>2</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="E22" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>470</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>330</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>20</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>21</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="7">
+        <v>2</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>22</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="7">
+        <v>2</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>23</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="7">
+        <v>2</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
-        <v>1</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9">
-        <v>1</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="G30" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>24</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="7">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
-        <v>2</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
-        <v>3</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="9">
-        <v>3</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>4</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="9">
-        <v>1</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>5</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="9">
-        <v>2</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
-        <v>6</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="9">
-        <v>1</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>7</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="9">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
-        <v>8</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
-        <v>9</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="13">
-        <v>17</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
-        <v>10</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="9">
-        <v>100</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
-        <v>11</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2</v>
-      </c>
-      <c r="D17" s="9">
-        <v>10</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="9">
-        <v>12</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="D31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" s="9">
-        <v>2</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9">
-        <v>13</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C19" s="9">
-        <v>1</v>
-      </c>
-      <c r="D19" s="9">
-        <v>10</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="9">
-        <v>14</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="9">
-        <v>2</v>
-      </c>
-      <c r="D20" s="9">
-        <v>4.7</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>15</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="9">
-        <v>4</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="9">
-        <v>16</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="9">
-        <v>1</v>
-      </c>
-      <c r="D22" s="9">
-        <v>220</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>17</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C23" s="9">
-        <v>1</v>
-      </c>
-      <c r="D23" s="9">
-        <v>120</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="9">
-        <v>18</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="9">
-        <v>1</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="9">
-        <v>19</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="9">
-        <v>2</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="9">
-        <v>20</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="9">
-        <v>2</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
-        <v>21</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="9">
-        <v>2</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="9">
-        <v>22</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="9">
-        <v>2</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9">
-        <v>23</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C29" s="9">
-        <v>4</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1858,16 +1922,18 @@
     <hyperlink ref="F19" r:id="rId10"/>
     <hyperlink ref="F21" r:id="rId11"/>
     <hyperlink ref="F18" r:id="rId12"/>
-    <hyperlink ref="F24" r:id="rId13"/>
-    <hyperlink ref="F26" r:id="rId14"/>
+    <hyperlink ref="F25" r:id="rId13"/>
+    <hyperlink ref="F28" r:id="rId14"/>
     <hyperlink ref="F10" r:id="rId15"/>
     <hyperlink ref="F7" r:id="rId16"/>
-    <hyperlink ref="F22" r:id="rId17"/>
-    <hyperlink ref="F29" r:id="rId18"/>
-    <hyperlink ref="F23" r:id="rId19"/>
+    <hyperlink ref="F23" r:id="rId17"/>
+    <hyperlink ref="F31" r:id="rId18"/>
+    <hyperlink ref="F24" r:id="rId19"/>
     <hyperlink ref="F20" r:id="rId20"/>
+    <hyperlink ref="F22" r:id="rId21"/>
+    <hyperlink ref="F26" r:id="rId22"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>